--- a/biology/Botanique/Symplocos_paniculata/Symplocos_paniculata.xlsx
+++ b/biology/Botanique/Symplocos_paniculata/Symplocos_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symplocos paniculata est une espèce de plantes à fleurs du genre Symplocos et de la famille des Symplocaceae. C'est un arbuste à feuilles caduques que l'on trouve dans son environnement naturel en Chine, au Japon et au sud de la Corée. Il est cultivé pour ses qualités ornementales et fleurit en juin.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symplocos paniculata peut atteindre 3 mètres de haut[1] en Europe, parfois plus (jusqu'à 6 mètres) dans son environnement d'origine en Asie. Ses feuilles mesurent de 2 à 4 cm de largeur et de 3 à 8 cm de longueur en moyenne. Ses fleurs odoriférantes hermaphrodites sont petites de 2 à 3 cm de longueur, disposées en panicules, et de couleur blanc-crème.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symplocos paniculata peut atteindre 3 mètres de haut en Europe, parfois plus (jusqu'à 6 mètres) dans son environnement d'origine en Asie. Ses feuilles mesurent de 2 à 4 cm de largeur et de 3 à 8 cm de longueur en moyenne. Ses fleurs odoriférantes hermaphrodites sont petites de 2 à 3 cm de longueur, disposées en panicules, et de couleur blanc-crème.
 L'écorce de Symplocos paniculata est grise et cannelée.
 Ses drupes, de 3 à 8 mm de diamètre en moyenne, mûrissent de septembre à octobre. Leur couleur est d'un bleu brillant et violacé. On peut les consommer en gelée. Les oiseaux en sont friands.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Symplocos paniculata est originaire du nord de la Birmanie,  de Cochinchine et du sud-ouest de la Chine, du Japon, et du sud de la Corée, où on le trouve jusqu'à 2 500 mètres d'altitude.
 Cet arbuste, lorsqu'il est cultivé, préfère les sols bien drainés et humides et peu les sols calcaires. Il apprécie le soleil et peut croître sous exposition à mi-ombre, mais ne peut pousser à l'ombre. Il supporte les sols acides.
@@ -576,9 +592,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le botaniste Miquel en donne la description en 1867 à Amsterdam[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le botaniste Miquel en donne la description en 1867 à Amsterdam.
 Synonymes:
 Symplocos chinensis (Lour.) Druce
 Prunus paniculatus Thunb.</t>
